--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/62_Niğde_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/62_Niğde_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05CD7E8A-B0D5-4803-8788-0C56E57B69FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3421A20-7AB2-41F6-87FA-0D3FF676F26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="679" xr2:uid="{13CAA892-70A3-49C5-ADBF-2101CF350403}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="679" xr2:uid="{AF2288D0-CAEF-46AA-AC8E-32B9C97E1FC6}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -950,14 +950,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{2F61C7A8-02C5-440E-989D-0A75E396FED0}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{3BE3FAEA-0405-4ADC-B738-2D2A033CA421}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{86A53179-620D-438F-B864-90E66F5F35D8}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{A33695D3-8013-48AF-86B0-CF823F1109F9}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{FDF92318-4F6E-473A-A3CA-1F003347C3BC}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C7B9BE61-792C-41B6-8BD6-0B9F8A017326}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{699758C8-CEF2-407C-A107-4A9A069A5C12}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F5D6CD63-AFE1-41BC-A080-0D2833B5A37C}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{046910B4-9041-41FA-AB6E-5BA612690983}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{052F2E53-B91D-45B1-9E42-74E99E7EDFBF}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{3FAF5969-3B16-40E4-BE39-1F5B264B088E}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{CF66FC67-5DC2-485B-90D4-B1CCC0F1CF43}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{2C5EAE44-5D1C-4D52-898D-BA9717E15142}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B21E5AAB-D7E6-488D-A4A6-40471FA13693}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{65B97B03-B8D3-4251-A0CD-6AAD26637CF1}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{92E4124F-E63F-4452-9850-CF90EDD97145}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1327,7 +1327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7C4282-A5F4-4F0D-8FF0-BF825D8BB513}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266AD4E7-8BAE-4C51-BC63-0BAB4BE969B4}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -2599,7 +2599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9B3ACF-2F5B-44A7-9F2C-8EA769572673}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF84EC4-4B5D-4273-A269-FD476C14E272}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3873,7 +3873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3387ED9-0F39-4404-BBFA-87DB7A0D052F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7DBA61-3E6B-4D95-B8B5-8BFF0B88EBC2}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5147,7 +5147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C24D7B-82FC-41CC-8692-782D66893ED4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819461BD-4585-4DF9-B7CC-DF6BF32565F2}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6415,7 +6415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E1B8CE-F6AD-4F37-A831-40F6065D156B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B8C97D-6314-4738-B5CC-7B28C6C7C12F}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -7685,7 +7685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11E7339-7250-48A3-81B4-D2FD9FB62BE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9209E2B-F309-4AA8-88DF-682528AC04C1}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -8957,7 +8957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B242726-F15D-4C9E-97D5-7960E93FDBC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E34235-2330-4129-9566-0BFA6E594028}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10227,7 +10227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BDD461-E8F9-4E7C-8E90-30EEE842CF8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531B213B-9261-4D43-805C-CBA483E4F159}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11497,7 +11497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81D1CEF-E2AB-4E56-8F96-6CBF48817210}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C7DF3C-F1FB-4A38-8BEE-9C5A1A44334D}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -12773,7 +12773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D40ADA-4BD4-47AC-8282-B3EBF8424AF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EEEA4D-775D-4304-9657-9A0179DC014D}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14045,7 +14045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F665A90C-B611-45DA-A581-88384C5B388A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A012A3A1-F025-4A14-AA95-1AC483218C10}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15315,7 +15315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D14F9AF-8FC1-4808-8C2D-AE3245E9C016}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7B74E2-B267-4014-87DB-A7775CBD6B77}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
